--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.13_Student_Input_Left_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.13_Student_Input_Left_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Compro Technologies Dropbox\Urja Saxena\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47235767-B306-4F62-8765-ECE2DDB9B921}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F23588-56BF-499E-A0E0-18C73C3BD478}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" xr2:uid="{8573AEC3-BED0-42B7-B402-28B1E164A1DE}"/>
   </bookViews>
@@ -775,7 +775,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
